--- a/EDA_Entrega/data/correlation_age_diabetes.xlsx
+++ b/EDA_Entrega/data/correlation_age_diabetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6541704989566979</v>
+        <v>-0.6541704989566257</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-16937684.36961876</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1467654659.705762</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6541704947985236</v>
+        <v>-0.6541704947984791</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-16937.6843875976</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1467654.64430582</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.1056970314047265</v>
+        <v>-0.105697031404723</v>
       </c>
       <c r="E4" t="n">
+        <v>2.444521865685108e-176</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.9127050411027408</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>247.1657693671092</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.04754555639187304</v>
+        <v>0.04754555639183024</v>
       </c>
       <c r="E5" t="n">
+        <v>4.628972013767294e-32</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0002805424045209041</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.03439230475759864</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07186604731735236</v>
+        <v>0.07186604731737319</v>
       </c>
       <c r="E6" t="n">
+        <v>4.169261071696215e-71</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.001014624141150363</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1390689651024178</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1232708082496448</v>
+        <v>-0.1232708082496338</v>
       </c>
       <c r="E7" t="n">
+        <v>5.364972224216884e-211</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.00373264452040557</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.213260903221118</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.01498044159209286</v>
+        <v>-0.01498044159209503</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0001753797680727832</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.0401858198003177</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>82.85052945395829</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1879511646382769</v>
+        <v>-0.187951164638247</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2525368246248472</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>38.23904677762357</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.01159331077104368</v>
+        <v>-0.01159331077105054</v>
       </c>
       <c r="E10" t="n">
+        <v>0.004071003690307114</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.003053705528629332</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.250990120535954</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.09989842721791266</v>
+        <v>0.09989842721790942</v>
       </c>
       <c r="E11" t="n">
+        <v>6.294589416755792e-136</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.002191394474127224</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4168177945902609</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.02465618325430416</v>
+        <v>0.02465618325430463</v>
       </c>
       <c r="E12" t="n">
+        <v>1.000872341873178e-09</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.003516753682479658</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.636628611947715</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.08016421961212077</v>
+        <v>-0.08016421961211502</v>
       </c>
       <c r="E13" t="n">
+        <v>3.474693270370537e-89</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.1169757489041609</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>31.19959722260147</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.04770228350325381</v>
+        <v>0.04770228350326224</v>
       </c>
       <c r="E14" t="n">
+        <v>2.915205189137668e-32</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.00301292120116534</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.6822882035632936</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.07186956295061611</v>
+        <v>0.07186956295060845</v>
       </c>
       <c r="E15" t="n">
+        <v>1.744269353963386e-72</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.001901472532346307</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.3522841371526039</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2263120969257562</v>
+        <v>0.2263120969256977</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1358102249861367</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>8.049467021579227</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.007439767709071782</v>
+        <v>0.00743976770907348</v>
       </c>
       <c r="E17" t="n">
+        <v>0.06246530862942311</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.0002743048711377705</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.280897258349684</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1205663162650999</v>
+        <v>-0.1205663162651034</v>
       </c>
       <c r="E18" t="n">
+        <v>8.24565695573412e-202</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.4662181148371052</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>222.1282836996618</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.03754005563956948</v>
+        <v>-0.0375400556395707</v>
       </c>
       <c r="E19" t="n">
+        <v>5.066639806697769e-21</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.0108696525093849</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>101.7269693067549</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.04719981810140328</v>
+        <v>-0.04719981810139005</v>
       </c>
       <c r="E20" t="n">
+        <v>2.835128288600073e-32</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1.742832900175393</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>432.9784490902734</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1188907676106408</v>
+        <v>0.1188907676106671</v>
       </c>
       <c r="E21" t="n">
+        <v>4.476192342438759e-196</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.02926005884186891</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.04075195727403</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.07649467203433158</v>
+        <v>0.07649467203433073</v>
       </c>
       <c r="E22" t="n">
+        <v>4.077461554781939e-82</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.003484884355951577</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.6995157320226384</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.03662278578195616</v>
+        <v>0.03662278578195449</v>
       </c>
       <c r="E23" t="n">
+        <v>4.495019378256194e-20</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.03353156191491187</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>2.1392562685329</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2464438486547222</v>
+        <v>0.2464438486547722</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.010762707157415</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.3884527854141947</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.3053880924023927</v>
+        <v>-0.3053880924023979</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.07175300873822985</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>7.430948212047506</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.1006426286931819</v>
+        <v>0.1006426286932086</v>
       </c>
       <c r="E26" t="n">
+        <v>6.109058450576078e-138</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01988229108704569</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.777792593396399</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.02871411061554581</v>
+        <v>-0.02871411061554359</v>
       </c>
       <c r="E27" t="n">
+        <v>6.554631604648147e-13</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.4980943184357122</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>187.6648077747063</v>
       </c>
     </row>
@@ -1158,12 +1241,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.03077175677414225</v>
+        <v>-0.03077175677414168</v>
       </c>
       <c r="E28" t="n">
+        <v>1.361076105913478e-14</v>
+      </c>
+      <c r="F28" t="n">
         <v>-0.09865768566529523</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>110.3272989407975</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.09595264439878093</v>
+        <v>-0.09595264439876838</v>
       </c>
       <c r="E29" t="n">
+        <v>8.601797450471721e-126</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.03851588945490812</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>44.48356445219031</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.02048828005371881</v>
+        <v>0.02048828005371939</v>
       </c>
       <c r="E30" t="n">
+        <v>2.84747815713463e-07</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.04220988174081138</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>55.41777068465462</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.1195423506255344</v>
+        <v>-0.1195423506255292</v>
       </c>
       <c r="E31" t="n">
+        <v>9.891804562513597e-195</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.01677286700034888</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>14.86902776841815</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.06651664446156709</v>
+        <v>0.06651664446156438</v>
       </c>
       <c r="E32" t="n">
+        <v>2.710602093557479e-62</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.002720851641143396</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.996528649810377</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.1137004652473535</v>
+        <v>-0.1137004652473478</v>
       </c>
       <c r="E33" t="n">
+        <v>4.207112125796212e-176</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.3816083661343495</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>129.8344020955457</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.1526421962326656</v>
+        <v>-0.1526421962326799</v>
       </c>
       <c r="E34" t="n">
+        <v>1.092050589300512e-316</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1370311047397768</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>39.46346490596498</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.09152404535648914</v>
+        <v>0.09152404535650063</v>
       </c>
       <c r="E35" t="n">
+        <v>3.34299626271387e-114</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.01924197925370466</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>29.28910632571182</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.08532284775253948</v>
+        <v>-0.08532284775252363</v>
       </c>
       <c r="E36" t="n">
+        <v>4.693411443626963e-99</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.00997839257340556</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.50069182282186</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1537344137735217</v>
+        <v>0.1537344137735135</v>
       </c>
       <c r="E37" t="n">
+        <v>6.521666525104454e-322</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.09578852357556476</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>86.813083687485</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1472405936377058</v>
+        <v>0.1472405936377446</v>
       </c>
       <c r="E38" t="n">
+        <v>1.396539469373913e-294</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.03430774118352192</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.197461393272885</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.01120331223878542</v>
+        <v>0.01120331223878331</v>
       </c>
       <c r="E39" t="n">
+        <v>0.005657890490044408</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.001080574126964798</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.13908044610177</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.01498646917298836</v>
+        <v>0.01498646917299006</v>
       </c>
       <c r="E40" t="n">
+        <v>0.0001736198758936468</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.00395283678039395</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139.2636019257255</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.08269988393685113</v>
+        <v>0.08269988393684767</v>
       </c>
       <c r="E41" t="n">
+        <v>1.333569520590874e-93</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.07940003486183135</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>51.91223688746248</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1008247830433714</v>
+        <v>0.10082478304337</v>
       </c>
       <c r="E42" t="n">
+        <v>3.049904619562273e-138</v>
+      </c>
+      <c r="F42" t="n">
         <v>12.15596562558329</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-541.548883706138</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.01421870024258919</v>
+        <v>0.01421870024259079</v>
       </c>
       <c r="E43" t="n">
+        <v>0.0004452624854828329</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.003214741628587158</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>13.64837288968446</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.1127779609538915</v>
+        <v>-0.1127779609538934</v>
       </c>
       <c r="E44" t="n">
+        <v>2.588575344746589e-173</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.7057587869415595</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>277.3772071968194</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.1800712406815791</v>
+        <v>-0.180071240681602</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.00878608012252036</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.10229165948373</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.07521218396597823</v>
+        <v>0.07521218396596095</v>
       </c>
       <c r="E46" t="n">
+        <v>6.853111753639224e-78</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.01015836253567086</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>13.22548398567938</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.0793994608636676</v>
+        <v>-0.07939946086366488</v>
       </c>
       <c r="E47" t="n">
+        <v>2.732726658251023e-88</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.6816174060261614</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>190.5431888170079</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1511473825946491</v>
+        <v>-0.151147382594629</v>
       </c>
       <c r="E48" t="n">
+        <v>2.313665941697724e-317</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.006490642437128455</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.31479482161592</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.01370390831865725</v>
+        <v>0.01370390831865678</v>
       </c>
       <c r="E49" t="n">
+        <v>0.0006846667736311893</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.004312913709445722</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.443938496753693</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.001120444024384463</v>
+        <v>0.001120444024384604</v>
       </c>
       <c r="E50" t="n">
+        <v>0.7798165039857394</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.0006567922558464227</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>1.796548812780455</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1419564647897961</v>
+        <v>0.1419564647897916</v>
       </c>
       <c r="E51" t="n">
+        <v>1.427376850457412e-277</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.1826842901794201</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>18.71961715474507</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1699423254087415</v>
+        <v>-0.1699423254087322</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>-230.0287196216252</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>63567.72661655576</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02823674647258111</v>
+        <v>0.02823674647258503</v>
       </c>
       <c r="E53" t="n">
+        <v>1.586382861273053e-12</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.02730063905057446</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2.290200242030748</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.01502713725171054</v>
+        <v>-0.01502713725171358</v>
       </c>
       <c r="E54" t="n">
+        <v>0.0001697395088810998</v>
+      </c>
+      <c r="F54" t="n">
         <v>-0.6139521539237144</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>614.9689993535037</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.03702972406482835</v>
+        <v>0.03702972406483095</v>
       </c>
       <c r="E55" t="n">
+        <v>1.885316964428672e-20</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.2156617507573964</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-6.905047568934719</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.113973428533954</v>
+        <v>0.1139734285339738</v>
       </c>
       <c r="E56" t="n">
+        <v>4.854377590282351e-180</v>
+      </c>
+      <c r="F56" t="n">
         <v>16.25500223381788</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>658.3215182219374</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.1783491176300258</v>
+        <v>-0.1783491176300009</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.6668230130398649</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>150.2780037394117</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.01982660237145209</v>
+        <v>-0.01982660237145423</v>
       </c>
       <c r="E58" t="n">
+        <v>2.300344862759447e-05</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.00104311388800528</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.9923216830477648</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.03690644272999098</v>
+        <v>0.03690644272999718</v>
       </c>
       <c r="E59" t="n">
+        <v>4.932035338741478e-16</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.02063740123912711</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>11.66919421246571</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.1171705994522642</v>
+        <v>-0.1171705994522513</v>
       </c>
       <c r="E60" t="n">
+        <v>4.61880620735675e-160</v>
+      </c>
+      <c r="F60" t="n">
         <v>-113.7161956522082</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>44048.88272508073</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.0003644696508094051</v>
+        <v>-0.0003644696508093001</v>
       </c>
       <c r="E61" t="n">
+        <v>0.9334017002653882</v>
+      </c>
+      <c r="F61" t="n">
         <v>-0.002375879030595696</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>219.9875585585445</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.03896961505170898</v>
+        <v>0.03896961505171306</v>
       </c>
       <c r="E62" t="n">
+        <v>9.424403368396753e-21</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0002126054700783893</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.0357057568180928</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.04917327767276822</v>
+        <v>0.04917327767276765</v>
       </c>
       <c r="E63" t="n">
+        <v>4.378956490411068e-32</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.0001540554448837416</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.02567321881876487</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.0002803483383918264</v>
+        <v>-0.0002803483383918799</v>
       </c>
       <c r="E64" t="n">
+        <v>0.946439455973434</v>
+      </c>
+      <c r="F64" t="n">
         <v>-7.404970169580654e-07</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.007233856060590382</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.09318250581464099</v>
+        <v>0.09318250581464591</v>
       </c>
       <c r="E65" t="n">
+        <v>6.277948877934104e-111</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.00155604731173277</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.1198548503180623</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.01763397493525829</v>
+        <v>0.01763397493525674</v>
       </c>
       <c r="E66" t="n">
+        <v>2.38317009936312e-05</v>
+      </c>
+      <c r="F66" t="n">
         <v>4.266950600661167e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.001391236356120693</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.09089165683746941</v>
+        <v>0.09089165683745999</v>
       </c>
       <c r="E67" t="n">
+        <v>1.383745803113214e-105</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.001458644007759404</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1139159905388163</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.09608091258737347</v>
+        <v>0.09608091258738498</v>
       </c>
       <c r="E68" t="n">
+        <v>7.618384813656726e-118</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001419593094785519</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.09850793379529917</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.09237126243568627</v>
+        <v>0.09237126243568043</v>
       </c>
       <c r="E69" t="n">
+        <v>5.150647334412246e-109</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001289905440523972</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.09684858477824894</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.09137431784465336</v>
+        <v>0.0913743178446481</v>
       </c>
       <c r="E70" t="n">
+        <v>1.047243823098879e-106</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.0001317462291883985</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.001320911792381765</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.03297124567573335</v>
+        <v>0.03297124567573471</v>
       </c>
       <c r="E71" t="n">
+        <v>1.456662897213956e-15</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.0003976588268045817</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.6847724380426709</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.06265277143905443</v>
+        <v>-0.06265277143905694</v>
       </c>
       <c r="E72" t="n">
+        <v>5.126695048361106e-52</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.0005796078471688828</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1998483904414</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.03733261619728605</v>
+        <v>-0.03733261619728762</v>
       </c>
       <c r="E73" t="n">
+        <v>1.620748761743942e-19</v>
+      </c>
+      <c r="F73" t="n">
         <v>-5.383597288676818e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.01234752978805435</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.004271327176912978</v>
+        <v>0.004271327176913338</v>
       </c>
       <c r="E74" t="n">
+        <v>0.3013646193084044</v>
+      </c>
+      <c r="F74" t="n">
         <v>2.936095775886588e-05</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.9326803660572259</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.007628691325832574</v>
+        <v>-0.007628691325832942</v>
       </c>
       <c r="E75" t="n">
+        <v>0.06489152975882126</v>
+      </c>
+      <c r="F75" t="n">
         <v>-6.350231640124207e-05</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.9569989636342831</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.0871980131493994</v>
+        <v>0.08719801314940409</v>
       </c>
       <c r="E76" t="n">
+        <v>3.389025582545706e-99</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.000338013217816379</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.0153830693843293</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.01147147577988767</v>
+        <v>0.01147147577988809</v>
       </c>
       <c r="E77" t="n">
+        <v>0.005481817550517303</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.002653015368845046</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.01050857735780614</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.05208652608927779</v>
+        <v>-0.05208652608927933</v>
       </c>
       <c r="E78" t="n">
+        <v>5.887678820729591e-30</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.0001423401773795428</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.0367126304673668</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.202462650301272</v>
+        <v>-0.2024626503012776</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.0038262621452998</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.595510517523137</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.1066941243093541</v>
+        <v>-0.1066941243093581</v>
       </c>
       <c r="E80" t="n">
+        <v>6.00752507142531e-148</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.002539875065783021</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.5158002934320016</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.05497360223866975</v>
+        <v>-0.05497360223867284</v>
       </c>
       <c r="E81" t="n">
+        <v>2.556192073303666e-40</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.0003536239412473155</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.05689003266261559</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1808304498881506</v>
+        <v>-0.1808304498881484</v>
       </c>
       <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.00824683478806087</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.506682858478537</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.005045186897085788</v>
+        <v>-0.005045186897087393</v>
       </c>
       <c r="E83" t="n">
+        <v>0.2225205283799324</v>
+      </c>
+      <c r="F83" t="n">
         <v>-5.26644503466109e-05</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.02200870718143659</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.01606677645998018</v>
+        <v>0.01606677645998483</v>
       </c>
       <c r="E84" t="n">
+        <v>0.0001023551099866282</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.0035252711455116</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.1882962760478296</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3384531183502156</v>
+        <v>-0.338453118350245</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.002244994502424612</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2209972814656226</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.09041186249763637</v>
+        <v>-0.09041186249763689</v>
       </c>
       <c r="E86" t="n">
+        <v>3.24706232011443e-106</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.002787336817884718</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.6266249686182856</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.1940308550127291</v>
+        <v>-0.1940308550127426</v>
       </c>
       <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.01162221413792953</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.176073442741081</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.113218426240071</v>
+        <v>-0.1132184262401078</v>
       </c>
       <c r="E88" t="n">
+        <v>4.894362340537753e-166</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001237317487304388</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.1771694086790776</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.0745162690036581</v>
+        <v>-0.07451626900364623</v>
       </c>
       <c r="E89" t="n">
+        <v>2.588248258200944e-74</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.0003860335713597761</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.0959322622910691</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.01343987759582816</v>
+        <v>0.01343987759582572</v>
       </c>
       <c r="E90" t="n">
+        <v>0.001019938593644162</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.0001532133697610569</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2354789181353139</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.01418940615899341</v>
+        <v>-0.01418940615899073</v>
       </c>
       <c r="E91" t="n">
+        <v>0.0005239852119147246</v>
+      </c>
+      <c r="F91" t="n">
         <v>-0.0001874997857643764</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.6957232932154305</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1674549767421275</v>
+        <v>-0.1674549767420949</v>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.002144454259251857</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.8433174603795791</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.06372266940466491</v>
+        <v>-0.063722669404678</v>
       </c>
       <c r="E93" t="n">
+        <v>1.15286349679231e-54</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.001051085236694621</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7245397846959973</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.1069636968944219</v>
+        <v>0.1069636968944254</v>
       </c>
       <c r="E94" t="n">
+        <v>9.807271921067439e-146</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002596590406686327</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.01729651429383731</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1081300302592994</v>
+        <v>0.1081300302593071</v>
       </c>
       <c r="E95" t="n">
+        <v>6.633513849436558e-149</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.000221071696873159</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.0145916443191684</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.06331621015876901</v>
+        <v>0.06331621015877632</v>
       </c>
       <c r="E96" t="n">
+        <v>4.215082797755911e-52</v>
+      </c>
+      <c r="F96" t="n">
         <v>3.628584948859983e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.005289975984259055</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.004876002140407167</v>
+        <v>-0.004876002140407658</v>
       </c>
       <c r="E97" t="n">
+        <v>0.3352840149927516</v>
+      </c>
+      <c r="F97" t="n">
         <v>-0.000406960252809412</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>5.823616141057422</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.066856909632786</v>
+        <v>0.0668569096327804</v>
       </c>
       <c r="E98" t="n">
+        <v>5.73419207195138e-42</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.1164947375412827</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>47.4206106090294</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.08785766904515369</v>
+        <v>-0.08785766904514547</v>
       </c>
       <c r="E99" t="n">
+        <v>1.426503987235898e-72</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.3391378150468866</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>215.4718476926755</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.004908858698557238</v>
+        <v>-0.004908858698556789</v>
       </c>
       <c r="E100" t="n">
+        <v>0.312462412771961</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.001889856642433169</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.415185851915152</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2372737493489775</v>
+        <v>0.2372737493489553</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.0106423122860657</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.3700622049281793</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6539698945384975</v>
+        <v>-0.6539698945384731</v>
       </c>
       <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
         <v>-19318900.61229811</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1643700994.645824</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6539698905812655</v>
+        <v>-0.6539698905812485</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>-19318.90065471888</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1643700.981041094</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.02492771048892991</v>
+        <v>-0.02492771048892905</v>
       </c>
       <c r="E104" t="n">
+        <v>6.136105012023432e-05</v>
+      </c>
+      <c r="F104" t="n">
         <v>-0.3463967448125747</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>242.1030157768641</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.02970392079909609</v>
+        <v>0.0297039207990965</v>
       </c>
       <c r="E105" t="n">
+        <v>8.915152957089818e-06</v>
+      </c>
+      <c r="F105" t="n">
         <v>0.0001826645769050711</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.04104203387640949</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.02131763759416546</v>
+        <v>0.02131763759416678</v>
       </c>
       <c r="E106" t="n">
+        <v>0.001435037847985694</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.0004079089811777779</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.194296021067649</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.09006312373510685</v>
+        <v>-0.09006312373510315</v>
       </c>
       <c r="E107" t="n">
+        <v>6.462592088264293e-43</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.003097158625732003</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.124776183246804</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.02819225786042028</v>
+        <v>-0.02819225786042032</v>
       </c>
       <c r="E108" t="n">
+        <v>1.799326546820207e-05</v>
+      </c>
+      <c r="F108" t="n">
         <v>-0.09960377207143119</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>90.69400961070427</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.1893442502940044</v>
+        <v>-0.1893442502940085</v>
       </c>
       <c r="E109" t="n">
+        <v>2.811656646842513e-185</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.2882027581315485</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>41.21397422548472</v>
       </c>
     </row>
@@ -3290,12 +3619,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.1617902866638111</v>
+        <v>-0.1617902866638066</v>
       </c>
       <c r="E110" t="n">
+        <v>5.876588006506679e-131</v>
+      </c>
+      <c r="F110" t="n">
         <v>-0.01517890879588721</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>3.127731498787411</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.05315071480030604</v>
+        <v>0.05315071480030799</v>
       </c>
       <c r="E111" t="n">
+        <v>1.834463186023891e-15</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.001062651327790429</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.4939485126295464</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-0.008227450410260346</v>
+        <v>-0.00822745041026042</v>
       </c>
       <c r="E112" t="n">
+        <v>0.2186646908463021</v>
+      </c>
+      <c r="F112" t="n">
         <v>-0.001308594715659491</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>4.188951176753434</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.0755818623464521</v>
+        <v>-0.07558186234645242</v>
       </c>
       <c r="E113" t="n">
+        <v>1.963486727333545e-30</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.08768945656374574</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>27.89378736169191</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.05319670074823767</v>
+        <v>0.05319670074824018</v>
       </c>
       <c r="E114" t="n">
+        <v>1.735158894839178e-15</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.003316676532028175</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.6264539752942455</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.1106500206656562</v>
+        <v>0.1106500206656584</v>
       </c>
       <c r="E115" t="n">
+        <v>7.945790249150218e-64</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.00275053352669056</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.2493416940925412</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2391518755240651</v>
+        <v>0.2391518755240673</v>
       </c>
       <c r="E116" t="n">
+        <v>1.6013125471541e-298</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.1974519350155617</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>4.836307734152035</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.01062199919551584</v>
+        <v>0.01062199919551596</v>
       </c>
       <c r="E117" t="n">
+        <v>0.1063277314655502</v>
+      </c>
+      <c r="F117" t="n">
         <v>0.0004358501921592192</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.276111726610798</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.1039304369035093</v>
+        <v>-0.1039304369035092</v>
       </c>
       <c r="E118" t="n">
+        <v>1.238091101088106e-56</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.4489171188212636</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>211.702417777002</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.01779490052773883</v>
+        <v>0.01779490052773908</v>
       </c>
       <c r="E119" t="n">
+        <v>0.006767937619319377</v>
+      </c>
+      <c r="F119" t="n">
         <v>0.005769672412152402</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>100.0201248546035</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.05658007297674428</v>
+        <v>-0.05658007297674143</v>
       </c>
       <c r="E120" t="n">
+        <v>6.938873194258594e-18</v>
+      </c>
+      <c r="F120" t="n">
         <v>-2.173777879275283</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>494.5575366909811</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.0559043560005703</v>
+        <v>0.055904356000569</v>
       </c>
       <c r="E121" t="n">
+        <v>1.805391568990091e-17</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.01475028123848336</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>23.04046810119574</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.06353439824767849</v>
+        <v>0.0635343982476777</v>
       </c>
       <c r="E122" t="n">
+        <v>3.612879341497211e-22</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.005349626789699691</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.6527860613832421</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-0.0002245379507980067</v>
+        <v>-0.0002245379507979615</v>
       </c>
       <c r="E123" t="n">
+        <v>0.9727480613842717</v>
+      </c>
+      <c r="F123" t="n">
         <v>-0.0002533813470237149</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>5.153604160244122</v>
       </c>
     </row>
@@ -3654,12 +4025,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.1865173757584968</v>
+        <v>0.1865173757585057</v>
       </c>
       <c r="E124" t="n">
+        <v>2.548718784954875e-180</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.01352277217797627</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.3063833328138592</v>
       </c>
     </row>
@@ -3680,12 +4054,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.3330931213387889</v>
+        <v>-0.3330931213387818</v>
       </c>
       <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.06318646369293857</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>6.656986316220474</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.05695688401343332</v>
+        <v>0.05695688401343027</v>
       </c>
       <c r="E126" t="n">
+        <v>1.562789701507991e-17</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.01346383381916854</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>2.261267615746928</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.01634186622597972</v>
+        <v>-0.01634186622597963</v>
       </c>
       <c r="E127" t="n">
+        <v>0.01295063565407776</v>
+      </c>
+      <c r="F127" t="n">
         <v>-0.3056642333568294</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>167.4133220467447</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.001682359178857783</v>
+        <v>0.00168235917885768</v>
       </c>
       <c r="E128" t="n">
+        <v>0.7982085987216835</v>
+      </c>
+      <c r="F128" t="n">
         <v>0.01032971002403947</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>129.0689546251391</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.1248928643969918</v>
+        <v>-0.124892864396985</v>
       </c>
       <c r="E129" t="n">
+        <v>5.22602820844631e-79</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.0567568827386552</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>45.20333993879572</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.05284703545245487</v>
+        <v>0.05284703545245494</v>
       </c>
       <c r="E130" t="n">
+        <v>8.462644509171414e-16</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.09573079758385718</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>45.92301800566341</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.1420089462331958</v>
+        <v>-0.1420089462331907</v>
       </c>
       <c r="E131" t="n">
+        <v>8.072587627529289e-102</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.02224617999736933</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>14.96995441329513</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.07729487391631389</v>
+        <v>0.07729487391631631</v>
       </c>
       <c r="E132" t="n">
+        <v>6.147318661618738e-32</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.003652153892592426</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>3.962180368817321</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.1115442890141449</v>
+        <v>-0.1115442890141413</v>
       </c>
       <c r="E133" t="n">
+        <v>1.980836511743124e-62</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.4095884270084193</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>124.0045167122102</v>
       </c>
     </row>
@@ -3914,12 +4315,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.1840506452272004</v>
+        <v>-0.1840506452271973</v>
       </c>
       <c r="E134" t="n">
+        <v>1.543443223521595e-169</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.1713756858914179</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>41.91885096141553</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1278457034903019</v>
+        <v>0.1278457034903037</v>
       </c>
       <c r="E135" t="n">
+        <v>1.593598158689057e-82</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.02871973124681696</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>28.13501932010886</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.05476074712894721</v>
+        <v>-0.05476074712894448</v>
       </c>
       <c r="E136" t="n">
+        <v>2.717987445088517e-16</v>
+      </c>
+      <c r="F136" t="n">
         <v>-0.00721255887085658</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>33.08328339759176</v>
       </c>
     </row>
@@ -3992,12 +4402,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.1738325037903989</v>
+        <v>0.1738325037903853</v>
       </c>
       <c r="E137" t="n">
+        <v>2.380919724278261e-152</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.1223440193826652</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>84.14391732422661</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1258879135275753</v>
+        <v>0.1258879135275683</v>
       </c>
       <c r="E138" t="n">
+        <v>1.220909105792787e-79</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.02947735168102409</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>6.149153134947294</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.01035183868688335</v>
+        <v>-0.01035183868688297</v>
       </c>
       <c r="E139" t="n">
+        <v>0.1228551716804014</v>
+      </c>
+      <c r="F139" t="n">
         <v>-0.001091084419840487</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>11.40207026492266</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.03019380377535991</v>
+        <v>0.03019380377536138</v>
       </c>
       <c r="E140" t="n">
+        <v>4.314683351932788e-06</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.008979711574863242</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>138.7461380100484</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.1274143504695525</v>
+        <v>0.127414350469548</v>
       </c>
       <c r="E141" t="n">
+        <v>1.493222931334039e-81</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.125975859662258</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>48.99816452599571</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.05197788402022977</v>
+        <v>0.0519778840202301</v>
       </c>
       <c r="E142" t="n">
+        <v>6.623925160784197e-15</v>
+      </c>
+      <c r="F142" t="n">
         <v>14.06420643027687</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-521.7112230535851</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.008555601614520035</v>
+        <v>0.008555601614520264</v>
       </c>
       <c r="E143" t="n">
+        <v>0.2023416468434383</v>
+      </c>
+      <c r="F143" t="n">
         <v>0.002167647462474013</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>13.98472189956828</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.143984326412609</v>
+        <v>-0.1439843264126006</v>
       </c>
       <c r="E144" t="n">
+        <v>1.808660347192799e-104</v>
+      </c>
+      <c r="F144" t="n">
         <v>-1.00681872020263</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>299.8664279224361</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.2258149379339685</v>
+        <v>-0.2258149379339607</v>
       </c>
       <c r="E145" t="n">
+        <v>2.118130165594875e-258</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.01199941384054276</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.306609293290645</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.0561034861132742</v>
+        <v>0.05610348611327113</v>
       </c>
       <c r="E146" t="n">
+        <v>3.531621346686838e-17</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.00854678648354891</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>13.59173206895187</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.06407916961366922</v>
+        <v>-0.06407916961367072</v>
       </c>
       <c r="E147" t="n">
+        <v>1.656534217097781e-22</v>
+      </c>
+      <c r="F147" t="n">
         <v>-0.8057418683261058</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>224.4730120883447</v>
       </c>
     </row>
@@ -4278,12 +4721,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.173596106004235</v>
+        <v>-0.1735961060042271</v>
       </c>
       <c r="E148" t="n">
+        <v>4.164768986349306e-156</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.007903624655004247</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.44574303971223</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.06920536075991046</v>
+        <v>-0.0692053607599126</v>
       </c>
       <c r="E149" t="n">
+        <v>3.776001102495545e-25</v>
+      </c>
+      <c r="F149" t="n">
         <v>-0.0146746382596531</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>8.028292196074375</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.01469942678542554</v>
+        <v>-0.01469942678542549</v>
       </c>
       <c r="E150" t="n">
+        <v>0.02609697486125047</v>
+      </c>
+      <c r="F150" t="n">
         <v>-0.009782940279821125</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>2.984946508798837</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.1826357255754569</v>
+        <v>0.1826357255754558</v>
       </c>
       <c r="E151" t="n">
+        <v>5.322273472300014e-171</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.2365417967721545</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>12.73047268593577</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.2016269087573258</v>
+        <v>-0.2016269087573212</v>
       </c>
       <c r="E152" t="n">
+        <v>4.003742327474537e-210</v>
+      </c>
+      <c r="F152" t="n">
         <v>-314.6585393078593</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>70129.00429260533</v>
       </c>
     </row>
@@ -4408,12 +4866,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.01698582954273274</v>
+        <v>0.01698582954273225</v>
       </c>
       <c r="E153" t="n">
+        <v>0.009894671728556792</v>
+      </c>
+      <c r="F153" t="n">
         <v>0.005510906822143473</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>3.676455195076043</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.03623686268043438</v>
+        <v>-0.036236862680433</v>
       </c>
       <c r="E154" t="n">
+        <v>3.704602138873925e-08</v>
+      </c>
+      <c r="F154" t="n">
         <v>-2.222462134439434</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>810.9066729172335</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.03870646741481064</v>
+        <v>0.03870646741480873</v>
       </c>
       <c r="E155" t="n">
+        <v>4.10786841596649e-09</v>
+      </c>
+      <c r="F155" t="n">
         <v>0.1147592115154455</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>-0.356504250010218</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.07993129810720154</v>
+        <v>0.07993129810719839</v>
       </c>
       <c r="E156" t="n">
+        <v>5.262990754324921e-34</v>
+      </c>
+      <c r="F156" t="n">
         <v>20.02552769549415</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>721.7354941167155</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1297566694387971</v>
+        <v>-0.129756669438792</v>
       </c>
       <c r="E157" t="n">
+        <v>3.831322679198579e-87</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.5159228046670743</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>134.1597035915017</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.09333607319947602</v>
+        <v>-0.09333607319947382</v>
       </c>
       <c r="E158" t="n">
+        <v>6.577092512640754e-34</v>
+      </c>
+      <c r="F158" t="n">
         <v>-0.006145210558112412</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>1.386615224074641</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.1042005275951657</v>
+        <v>0.1042005275951658</v>
       </c>
       <c r="E159" t="n">
+        <v>1.35339796178576e-43</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.06161826179711478</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>8.875243605743171</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.1833133769335331</v>
+        <v>-0.1833133769335334</v>
       </c>
       <c r="E160" t="n">
+        <v>3.945298402456937e-144</v>
+      </c>
+      <c r="F160" t="n">
         <v>-193.943720013578</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>49535.73305114712</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.01572167990919512</v>
+        <v>-0.01572167990919488</v>
       </c>
       <c r="E161" t="n">
+        <v>0.02971197828700526</v>
+      </c>
+      <c r="F161" t="n">
         <v>-0.0905922967182739</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>236.5448996338635</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-0.005134213472374811</v>
+        <v>-0.005134213472374731</v>
       </c>
       <c r="E162" t="n">
+        <v>0.4525279483563081</v>
+      </c>
+      <c r="F162" t="n">
         <v>-2.18093484476918e-05</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.05304600781371466</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.006458845649594061</v>
+        <v>0.00645884564959421</v>
       </c>
       <c r="E163" t="n">
+        <v>0.3448274537080068</v>
+      </c>
+      <c r="F163" t="n">
         <v>2.176444125844372e-05</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.03587016618251786</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-0.01967283541961959</v>
+        <v>-0.01967283541961952</v>
       </c>
       <c r="E164" t="n">
+        <v>0.004007197788001258</v>
+      </c>
+      <c r="F164" t="n">
         <v>-1.41510960975409e-05</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.007401938920783601</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.02404514042733089</v>
+        <v>0.02404514042733117</v>
       </c>
       <c r="E165" t="n">
+        <v>0.0004337880877783016</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.0004646824168043024</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.2107301144402891</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.004154851945635567</v>
+        <v>0.004154851945635672</v>
       </c>
       <c r="E166" t="n">
+        <v>0.5432461307838151</v>
+      </c>
+      <c r="F166" t="n">
         <v>9.597881386504462e-07</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.001573354645381284</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.02132354762373903</v>
+        <v>0.02132354762373894</v>
       </c>
       <c r="E167" t="n">
+        <v>0.001806869328069828</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.0003976612037114467</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.2012866042613318</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.09725383127698606</v>
+        <v>0.09725383127698403</v>
       </c>
       <c r="E168" t="n">
+        <v>3.703932843905718e-46</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.00155372578602558</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.08904277283162015</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.09421711573094209</v>
+        <v>0.09421711573094146</v>
       </c>
       <c r="E169" t="n">
+        <v>2.098628005466635e-43</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.00143882381330163</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.08728741677365633</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.09707968670745917</v>
+        <v>0.09707968670745876</v>
       </c>
       <c r="E170" t="n">
+        <v>5.503670342077068e-46</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001645880364931867</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>-0.00316437915818126</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.01643745080088667</v>
+        <v>0.01643745080088843</v>
       </c>
       <c r="E171" t="n">
+        <v>0.01457827584613728</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.0002346744092954354</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.6985461708817713</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.0185396234974691</v>
+        <v>-0.01853962349746953</v>
       </c>
       <c r="E172" t="n">
+        <v>0.005866814780888932</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.0001723606215299284</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.1578943464457158</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.004793188405433684</v>
+        <v>-0.004793188405433557</v>
       </c>
       <c r="E173" t="n">
+        <v>0.4761512809914855</v>
+      </c>
+      <c r="F173" t="n">
         <v>-7.359703862643837e-06</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.008654923453623143</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-0.006538002447239382</v>
+        <v>-0.006538002447239436</v>
       </c>
       <c r="E174" t="n">
+        <v>0.3311115652945956</v>
+      </c>
+      <c r="F174" t="n">
         <v>-5.014263076146697e-05</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9353805325588077</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-0.02762937050860033</v>
+        <v>-0.02762937050860097</v>
       </c>
       <c r="E175" t="n">
+        <v>4.003070818849086e-05</v>
+      </c>
+      <c r="F175" t="n">
         <v>-0.0002134061204845889</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9686283759758004</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.1011171167512172</v>
+        <v>0.101117116751221</v>
       </c>
       <c r="E176" t="n">
+        <v>2.647915727319714e-51</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0004851477513063912</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.007238664185974665</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-0.08582950257755671</v>
+        <v>-0.08582950257755551</v>
       </c>
       <c r="E177" t="n">
+        <v>2.300441582660423e-36</v>
+      </c>
+      <c r="F177" t="n">
         <v>-0.002292463283193296</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>0.3093547868425676</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.02496917475798585</v>
+        <v>-0.02496917475798614</v>
       </c>
       <c r="E178" t="n">
+        <v>0.001095256780298615</v>
+      </c>
+      <c r="F178" t="n">
         <v>-7.779903822416703e-05</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.03474472234624218</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.2547706626827332</v>
+        <v>-0.2547706626827309</v>
       </c>
       <c r="E179" t="n">
+        <v>1.096547456233204e-313</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.005725982889738497</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.7707370259521427</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.09964338072375772</v>
+        <v>-0.0996433807237548</v>
       </c>
       <c r="E180" t="n">
+        <v>1.82126894081047e-48</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.002954482650276199</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.5725948787281483</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.07977013630797197</v>
+        <v>-0.07977013630797083</v>
       </c>
       <c r="E181" t="n">
+        <v>1.666939541914582e-31</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.000662081175728857</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.08570332928814076</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.2309207071659913</v>
+        <v>-0.2309207071659826</v>
       </c>
       <c r="E182" t="n">
+        <v>1.387190351189286e-257</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.01175570491567498</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.798080793843659</v>
       </c>
     </row>
@@ -5188,12 +5736,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.02531541868348127</v>
+        <v>-0.02531541868348168</v>
       </c>
       <c r="E183" t="n">
+        <v>0.0002112451237260868</v>
+      </c>
+      <c r="F183" t="n">
         <v>-0.000266090609668815</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.03642111124680547</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-0.04219016867429387</v>
+        <v>-0.04219016867429459</v>
       </c>
       <c r="E184" t="n">
+        <v>6.544273081781028e-10</v>
+      </c>
+      <c r="F184" t="n">
         <v>-0.0001702100209034099</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>0.02822156149820419</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.3358044457931949</v>
+        <v>-0.3358044457931832</v>
       </c>
       <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.002339516398203508</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.2282751823491833</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.09840147305575273</v>
+        <v>-0.09840147305575241</v>
       </c>
       <c r="E186" t="n">
+        <v>4.068930753383641e-47</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.003065343742249287</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.6210670863359969</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.2246795661340787</v>
+        <v>-0.2246795661340763</v>
       </c>
       <c r="E187" t="n">
+        <v>1.326593051202579e-243</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.01570146240769142</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.54457309562955</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.1768572084210718</v>
+        <v>-0.1768572084210732</v>
       </c>
       <c r="E188" t="n">
+        <v>5.171264333220194e-150</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.002019705690437999</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.2357875712778367</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.1258644592851365</v>
+        <v>-0.1258644592851306</v>
       </c>
       <c r="E189" t="n">
+        <v>7.016344985713582e-79</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0006430542500772469</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.1128163130338338</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.03978947609772913</v>
+        <v>0.0397894760977277</v>
       </c>
       <c r="E190" t="n">
+        <v>3.158108989276215e-09</v>
+      </c>
+      <c r="F190" t="n">
         <v>0.0004823256712003648</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.217508078606541</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-0.04899243147600105</v>
+        <v>-0.04899243147599955</v>
       </c>
       <c r="E191" t="n">
+        <v>2.994839675336944e-13</v>
+      </c>
+      <c r="F191" t="n">
         <v>-0.000689460114233332</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.7226148168278264</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.1380639103855351</v>
+        <v>-0.1380639103855264</v>
       </c>
       <c r="E192" t="n">
+        <v>1.12072533710217e-94</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.001905751044608041</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.8302681434059672</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.0638895835952209</v>
+        <v>-0.06388958359522051</v>
       </c>
       <c r="E193" t="n">
+        <v>1.917442900974268e-21</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.001099440634516238</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.7179385937174656</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.04779428445635692</v>
+        <v>0.04779428445635637</v>
       </c>
       <c r="E194" t="n">
+        <v>2.616420608858319e-12</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.0001381937206428286</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.02659658601364517</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.1138837404614268</v>
+        <v>0.1138837404614261</v>
       </c>
       <c r="E195" t="n">
+        <v>9.841867607119824e-63</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0002508272096773936</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.01101858268852441</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.007614994528968826</v>
+        <v>0.007614994528968947</v>
       </c>
       <c r="E196" t="n">
+        <v>0.2651981115760703</v>
+      </c>
+      <c r="F196" t="n">
         <v>4.749093536332744e-06</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.007349659885491108</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.05162725243724041</v>
+        <v>-0.05162725243724002</v>
       </c>
       <c r="E197" t="n">
+        <v>7.49700424848254e-10</v>
+      </c>
+      <c r="F197" t="n">
         <v>-0.007079367858536125</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>6.943386690957116</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.03178038937317634</v>
+        <v>0.03178038937317751</v>
       </c>
       <c r="E198" t="n">
+        <v>7.915251344805234e-05</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.05986883999007255</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>47.50377567040796</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.06737781676963135</v>
+        <v>-0.06737781676962926</v>
       </c>
       <c r="E199" t="n">
+        <v>2.668567120911424e-17</v>
+      </c>
+      <c r="F199" t="n">
         <v>-0.3029979265823237</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>201.2064274856156</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-0.01015283339906003</v>
+        <v>-0.01015283339906048</v>
       </c>
       <c r="E200" t="n">
+        <v>0.2014272582937057</v>
+      </c>
+      <c r="F200" t="n">
         <v>-0.004671538752402221</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>4.088640377294661</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.2278248365900705</v>
+        <v>0.2278248365900604</v>
       </c>
       <c r="E201" t="n">
+        <v>5.066223880659083e-185</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.01507193210142268</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.1648981645350889</v>
       </c>
     </row>
